--- a/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,373 +46,388 @@
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>stress</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
     <t>from</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>.</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -770,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -857,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -889,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -907,31 +922,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L4">
+        <v>53</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L4">
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>54</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -939,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -957,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -981,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1007,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1039,13 +1054,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8047945205479452</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D7">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1081,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1089,13 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1131,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1139,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1157,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1181,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1189,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1231,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,16 +1275,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.8381201044386423</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1281,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1289,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1307,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1381,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.68</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1407,31 +1422,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.8076923076923077</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L14">
+        <v>85</v>
+      </c>
+      <c r="M14">
+        <v>85</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>21</v>
-      </c>
-      <c r="M14">
-        <v>21</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.79375</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1481,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1489,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5769230769230769</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1507,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1539,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1557,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1581,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1589,13 +1604,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5608465608465608</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C18">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1631,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1639,13 +1654,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5423728813559322</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1657,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>0.7676056338028169</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1681,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1689,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1707,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.765625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1731,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1739,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5329457364341085</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1757,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>0.7641509433962265</v>
+        <v>0.765625</v>
       </c>
       <c r="L21">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1781,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1789,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1807,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K22">
         <v>0.7575757575757576</v>
@@ -1839,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4966442953020134</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1857,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>0.7560975609756098</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1881,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1889,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.475</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1907,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1931,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1939,13 +1954,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>0.7441860465116279</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1981,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1989,13 +2004,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4533333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2007,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>0.7291666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2031,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2039,13 +2054,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4516129032258064</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2057,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2081,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2089,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4181818181818182</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2107,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2131,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2139,13 +2154,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4166666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2157,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>0.6825396825396826</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2181,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2189,13 +2204,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.40625</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2207,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2231,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2239,13 +2254,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2257,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2281,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2289,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2307,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K32">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2331,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2339,13 +2354,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3783783783783784</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2357,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2381,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2389,13 +2404,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2407,19 +2422,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K34">
-        <v>0.6521739130434783</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2431,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2857142857142857</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C35">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2457,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="L35">
         <v>180</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35">
-        <v>0.65</v>
-      </c>
-      <c r="L35">
-        <v>221</v>
-      </c>
       <c r="M35">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2489,13 +2504,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2745098039215687</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,16 +2525,16 @@
         <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2531,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2539,13 +2554,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2375</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2557,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2581,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2589,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2337662337662338</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2607,19 +2622,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K38">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M38">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2631,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2639,13 +2654,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1501340482573726</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2657,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K39">
-        <v>0.5899581589958159</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2681,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2689,13 +2704,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2707,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K40">
-        <v>0.5898305084745763</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L40">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="M40">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2731,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2739,37 +2754,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03054662379421222</v>
+        <v>0.1625</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K41">
-        <v>0.5757575757575758</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2781,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2789,28 +2804,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01987315010570825</v>
+        <v>0.11</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2318</v>
+        <v>267</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K42">
         <v>0.5600000000000001</v>
@@ -2839,28 +2854,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01810344827586207</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="F43">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1139</v>
+        <v>608</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K43">
         <v>0.5571428571428572</v>
@@ -2889,37 +2904,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01596351197263398</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>0.04</v>
+      </c>
+      <c r="F44">
+        <v>0.96</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1136</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L44">
         <v>19</v>
       </c>
-      <c r="E44">
-        <v>0.26</v>
-      </c>
-      <c r="F44">
-        <v>0.74</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>863</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K44">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
       <c r="M44">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2931,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2939,37 +2954,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0148578811369509</v>
+        <v>0.01838755304101839</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45">
-        <v>0.8100000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3050</v>
+        <v>694</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K45">
-        <v>0.5185185185185185</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2989,37 +3004,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.013215859030837</v>
+        <v>0.01815878378378378</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E46">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F46">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1120</v>
+        <v>2325</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K46">
-        <v>0.5168539325842697</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3031,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3039,37 +3054,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01176470588235294</v>
+        <v>0.01710376282782212</v>
       </c>
       <c r="C47">
         <v>15</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="F47">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1260</v>
+        <v>862</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K47">
         <v>0.5</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3081,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3089,37 +3104,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0117096018735363</v>
+        <v>0.01586042823156225</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>0.24</v>
+        <v>0.58</v>
       </c>
       <c r="F48">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2110</v>
+        <v>1241</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K48">
-        <v>0.4901960784313725</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3131,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3139,37 +3154,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01134380453752181</v>
+        <v>0.01484349790254921</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E49">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="F49">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2266</v>
+        <v>3053</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K49">
-        <v>0.4666666666666667</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3181,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3189,49 +3204,49 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.008881711748082357</v>
+        <v>0.01144366197183099</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="F50">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>4910</v>
+        <v>1123</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K50">
-        <v>0.4390243902439024</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3239,37 +3254,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.008781977854142803</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="F51">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2596</v>
+        <v>2112</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K51">
-        <v>0.4246575342465753</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3281,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3289,37 +3304,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.008390243902439025</v>
+        <v>0.0106962663975782</v>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E52">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F52">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>5082</v>
+        <v>4902</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>0.3823529411764706</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3331,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3339,37 +3354,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.007462686567164179</v>
+        <v>0.009154315605928508</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="F53">
-        <v>0.4399999999999999</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>4256</v>
+        <v>2273</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K53">
-        <v>0.3508771929824561</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3381,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3389,37 +3404,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.006614303431169905</v>
+        <v>0.009097270818754374</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E54">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="F54">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>2403</v>
+        <v>4248</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K54">
-        <v>0.3333333333333333</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3431,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3439,37 +3454,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00608044901777362</v>
+        <v>0.007795751315533035</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E55">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
       <c r="F55">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2125</v>
+        <v>5091</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K55">
-        <v>0.3050847457627119</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3481,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3489,115 +3504,163 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004104831070413641</v>
+        <v>0.00620347394540943</v>
       </c>
       <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>0.64</v>
+      </c>
+      <c r="F56">
+        <v>0.36</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2403</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56">
+        <v>0.3125</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.005680025244556642</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>0.64</v>
+      </c>
+      <c r="F57">
+        <v>0.36</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3151</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.004937333839726547</v>
+      </c>
+      <c r="C58">
         <v>13</v>
       </c>
-      <c r="D56">
-        <v>47</v>
-      </c>
-      <c r="E56">
-        <v>0.72</v>
-      </c>
-      <c r="F56">
-        <v>0.28</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>3154</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K56">
-        <v>0.2950819672131147</v>
-      </c>
-      <c r="L56">
-        <v>18</v>
-      </c>
-      <c r="M56">
-        <v>18</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K57">
-        <v>0.28125</v>
-      </c>
-      <c r="L57">
-        <v>18</v>
-      </c>
-      <c r="M57">
-        <v>18</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="D58">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>0.75</v>
+      </c>
+      <c r="F58">
+        <v>0.25</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2620</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K58">
-        <v>0.1834862385321101</v>
-      </c>
-      <c r="L58">
-        <v>20</v>
-      </c>
-      <c r="M58">
-        <v>20</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K59">
-        <v>0.1129032258064516</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3609,38 +3672,38 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K60">
-        <v>0.09259259259259259</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L60">
         <v>15</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K61">
         <v>0.09090909090909091</v>
@@ -3666,16 +3729,16 @@
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K62">
-        <v>0.08108108108108109</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3687,73 +3750,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K63">
-        <v>0.05536332179930796</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>273</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K64">
-        <v>0.04090150250417363</v>
+        <v>0.04556354916067146</v>
       </c>
       <c r="L64">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1149</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K65">
-        <v>0.0360576923076923</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3765,371 +3828,371 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>401</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K66">
-        <v>0.03302752293577982</v>
+        <v>0.04021937842778794</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K67">
-        <v>0.02332657200811359</v>
+        <v>0.04011461318051576</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>963</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="K68">
-        <v>0.02037735849056604</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L68">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="N68">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2596</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K69">
-        <v>0.02</v>
+        <v>0.02206461780929866</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>0.58</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>882</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K70">
-        <v>0.01799916282963583</v>
+        <v>0.01725888324873097</v>
       </c>
       <c r="L70">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O70">
-        <v>0.09999999999999998</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2346</v>
+        <v>968</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K71">
-        <v>0.01677852348993289</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>879</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K72">
-        <v>0.01389766266582438</v>
+        <v>0.01603665521191294</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="O72">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1561</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K73">
-        <v>0.01253616200578592</v>
+        <v>0.01590623691921306</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N73">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="O73">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1024</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K74">
-        <v>0.01098901098901099</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M74">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="N74">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="O74">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1260</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="K75">
-        <v>0.01070399341292713</v>
+        <v>0.01459034792368126</v>
       </c>
       <c r="L75">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M75">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O75">
-        <v>0.38</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2403</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="K76">
-        <v>0.01066499372647428</v>
+        <v>0.01445086705202312</v>
       </c>
       <c r="L76">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N76">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="O76">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>3154</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K77">
-        <v>0.009324009324009324</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N77">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="O77">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>2125</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K78">
-        <v>0.00931098696461825</v>
+        <v>0.01005340873389884</v>
       </c>
       <c r="L78">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N78">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="O78">
-        <v>0.4399999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>4256</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K79">
-        <v>0.008481421647819063</v>
+        <v>0.009559337840988575</v>
       </c>
       <c r="L79">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M79">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N79">
+        <v>0.51</v>
+      </c>
+      <c r="O79">
         <v>0.49</v>
       </c>
-      <c r="O79">
-        <v>0.51</v>
-      </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>4910</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -4137,77 +4200,103 @@
         <v>57</v>
       </c>
       <c r="K80">
-        <v>0.007809449433814916</v>
+        <v>0.008294557960752579</v>
       </c>
       <c r="L80">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M80">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N80">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="O80">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>5082</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="K81">
-        <v>0.007446342531756461</v>
+        <v>0.007441860465116279</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="O81">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>2266</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K82">
-        <v>0.006003430531732418</v>
+        <v>0.006634146341463414</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M82">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N82">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="O82">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2318</v>
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K83">
+        <v>0.006555944055944056</v>
+      </c>
+      <c r="L83">
+        <v>15</v>
+      </c>
+      <c r="M83">
+        <v>36</v>
+      </c>
+      <c r="N83">
+        <v>0.42</v>
+      </c>
+      <c r="O83">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2273</v>
       </c>
     </row>
   </sheetData>
